--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tdgf1-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tdgf1-Acvr1b.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tdgf1</t>
+  </si>
+  <si>
+    <t>Acvr1b</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Tdgf1</t>
-  </si>
-  <si>
-    <t>Acvr1b</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="H2">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N2">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q2">
-        <v>0.4135039956623334</v>
+        <v>0.022747869214</v>
       </c>
       <c r="R2">
-        <v>3.721535960961</v>
+        <v>0.204730822926</v>
       </c>
       <c r="S2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="T2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="H3">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>13.862121</v>
       </c>
       <c r="O3">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P3">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q3">
-        <v>0.5292388371876666</v>
+        <v>0.03017783741699999</v>
       </c>
       <c r="R3">
-        <v>4.763149534688999</v>
+        <v>0.2716005367529999</v>
       </c>
       <c r="S3">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="T3">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="H4">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N4">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q4">
-        <v>0.317795030266</v>
+        <v>0.018112485433</v>
       </c>
       <c r="R4">
-        <v>2.860155272394</v>
+        <v>0.163012368897</v>
       </c>
       <c r="S4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="T4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="H5">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N5">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O5">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P5">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q5">
-        <v>0.4433184140894444</v>
+        <v>0.018957113539</v>
       </c>
       <c r="R5">
-        <v>3.989865726805</v>
+        <v>0.170614021851</v>
       </c>
       <c r="S5">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="T5">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
     </row>
   </sheetData>
